--- a/dataset/diy/edge.xlsx
+++ b/dataset/diy/edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\GFD-Discovery\dataset\diy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C06D561-9E29-4A6A-918A-CD69DD77B1AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17F7EE4-1480-4688-B54E-32920F194333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>sourceID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -683,6 +683,34 @@
         <v>14</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
